--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdmann0288\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CA4C2E-E799-4952-9CA5-E27CAB880DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="259">
   <si>
     <t>Task#</t>
   </si>
@@ -812,12 +813,18 @@
   </si>
   <si>
     <t xml:space="preserve">Connect Remote Datbase to local RIS </t>
+  </si>
+  <si>
+    <t>Add .trim() to the RIS System</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3342,11 +3349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,9 +3424,9 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10">
+      <c r="E2" s="10" t="e">
         <f>SUM(E3:E100)</f>
-        <v>711</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
@@ -6149,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="11" t="str">
-        <f>IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
+        <f t="shared" ref="N69:N101" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
         <v>Not Started</v>
       </c>
     </row>
@@ -6173,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="11" t="str">
-        <f>IF(A70="","",IF(I70="","Not Started",IF(H70=I70,"Complete",IF(H70&gt;I70,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6197,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="11" t="str">
-        <f>IF(A71="","",IF(I71="","Not Started",IF(H71=I71,"Complete",IF(H71&gt;I71,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6219,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="11" t="str">
-        <f>IF(A72="","",IF(I72="","Not Started",IF(H72=I72,"Complete",IF(H72&gt;I72,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6241,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="11" t="str">
-        <f>IF(A73="","",IF(I73="","Not Started",IF(H73=I73,"Complete",IF(H73&gt;I73,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6263,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="11" t="str">
-        <f>IF(A74="","",IF(I74="","Not Started",IF(H74=I74,"Complete",IF(H74&gt;I74,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6285,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="11" t="str">
-        <f>IF(A75="","",IF(I75="","Not Started",IF(H75=I75,"Complete",IF(H75&gt;I75,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6307,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="11" t="str">
-        <f>IF(A76="","",IF(I76="","Not Started",IF(H76=I76,"Complete",IF(H76&gt;I76,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6329,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="11" t="str">
-        <f>IF(A77="","",IF(I77="","Not Started",IF(H77=I77,"Complete",IF(H77&gt;I77,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6351,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="11" t="str">
-        <f>IF(A78="","",IF(I78="","Not Started",IF(H78=I78,"Complete",IF(H78&gt;I78,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6373,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="11" t="str">
-        <f>IF(A79="","",IF(I79="","Not Started",IF(H79=I79,"Complete",IF(H79&gt;I79,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6395,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="11" t="str">
-        <f>IF(A80="","",IF(I80="","Not Started",IF(H80=I80,"Complete",IF(H80&gt;I80,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6417,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="11" t="str">
-        <f>IF(A81="","",IF(I81="","Not Started",IF(H81=I81,"Complete",IF(H81&gt;I81,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6439,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="11" t="str">
-        <f>IF(A82="","",IF(I82="","Not Started",IF(H82=I82,"Complete",IF(H82&gt;I82,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6461,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="11" t="str">
-        <f>IF(A83="","",IF(I83="","Not Started",IF(H83=I83,"Complete",IF(H83&gt;I83,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6483,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="11" t="str">
-        <f>IF(A84="","",IF(I84="","Not Started",IF(H84=I84,"Complete",IF(H84&gt;I84,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6505,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="11" t="str">
-        <f>IF(A85="","",IF(I85="","Not Started",IF(H85=I85,"Complete",IF(H85&gt;I85,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6527,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="11" t="str">
-        <f>IF(A86="","",IF(I86="","Not Started",IF(H86=I86,"Complete",IF(H86&gt;I86,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6549,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="11" t="str">
-        <f>IF(A87="","",IF(I87="","Not Started",IF(H87=I87,"Complete",IF(H87&gt;I87,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6571,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="11" t="str">
-        <f>IF(A88="","",IF(I88="","Not Started",IF(H88=I88,"Complete",IF(H88&gt;I88,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v>Not Started</v>
       </c>
     </row>
@@ -6587,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="11" t="str">
-        <f>IF(A89="","",IF(I89="","Not Started",IF(H89=I89,"Complete",IF(H89&gt;I89,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6603,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="11" t="str">
-        <f>IF(A90="","",IF(I90="","Not Started",IF(H90=I90,"Complete",IF(H90&gt;I90,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6619,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="11" t="str">
-        <f>IF(A91="","",IF(I91="","Not Started",IF(H91=I91,"Complete",IF(H91&gt;I91,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6635,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="11" t="str">
-        <f>IF(A92="","",IF(I92="","Not Started",IF(H92=I92,"Complete",IF(H92&gt;I92,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6651,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="N93" s="11" t="str">
-        <f>IF(A93="","",IF(I93="","Not Started",IF(H93=I93,"Complete",IF(H93&gt;I93,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6667,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="11" t="str">
-        <f>IF(A94="","",IF(I94="","Not Started",IF(H94=I94,"Complete",IF(H94&gt;I94,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6683,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="11" t="str">
-        <f>IF(A95="","",IF(I95="","Not Started",IF(H95=I95,"Complete",IF(H95&gt;I95,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6699,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="11" t="str">
-        <f>IF(A96="","",IF(I96="","Not Started",IF(H96=I96,"Complete",IF(H96&gt;I96,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6715,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="11" t="str">
-        <f>IF(A97="","",IF(I97="","Not Started",IF(H97=I97,"Complete",IF(H97&gt;I97,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6731,14 +6738,20 @@
         <v>0</v>
       </c>
       <c r="N98" s="11" t="str">
-        <f>IF(A98="","",IF(I98="","Not Started",IF(H98=I98,"Complete",IF(H98&gt;I98,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E99" s="9">
+      <c r="B99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -6746,8 +6759,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M99" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N99" s="11" t="str">
-        <f>IF(A99="","",IF(I99="","Not Started",IF(H99=I99,"Complete",IF(H99&gt;I99,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6763,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="11" t="str">
-        <f>IF(A100="","",IF(I100="","Not Started",IF(H100=I100,"Complete",IF(H100&gt;I100,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6788,14 +6804,14 @@
         <v>0</v>
       </c>
       <c r="N101" s="11" t="str">
-        <f>IF(A101="","",IF(I101="","Not Started",IF(H101=I101,"Complete",IF(H101&gt;I101,"In Progress"))))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>""""",Not Started, In Progress, Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6805,7 +6821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CA4C2E-E799-4952-9CA5-E27CAB880DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56076F-F34C-49D7-BB0B-8CB9EEFFD4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="308">
   <si>
     <t>Task#</t>
   </si>
@@ -479,9 +479,6 @@
     <t>Chase, Austin, Cole, Cade</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>System Architecture Learned</t>
   </si>
   <si>
@@ -683,75 +680,12 @@
     <t>Austin debugging system</t>
   </si>
   <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <t>17a</t>
-  </si>
-  <si>
     <t>Get Login Functionality Working</t>
   </si>
   <si>
-    <t>18b</t>
-  </si>
-  <si>
-    <t>18c</t>
-  </si>
-  <si>
-    <t>18d</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>19a</t>
-  </si>
-  <si>
-    <t>19b</t>
-  </si>
-  <si>
-    <t>20a</t>
-  </si>
-  <si>
-    <t>21a</t>
-  </si>
-  <si>
-    <t>17b</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>17c</t>
-  </si>
-  <si>
-    <t>17d</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>18a</t>
-  </si>
-  <si>
     <t>Add Show Image Button to Required Sections</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20b</t>
-  </si>
-  <si>
-    <t>20c</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>21b</t>
-  </si>
-  <si>
     <t>Feature 1 - Adding Patient's Alerts to RIS</t>
   </si>
   <si>
@@ -767,9 +701,6 @@
     <t>Update Create/Modify Patient Queries to Insert Patient's Alerts</t>
   </si>
   <si>
-    <t>17e</t>
-  </si>
-  <si>
     <t>Add ListView to Create/Modify Patients with Alert Options</t>
   </si>
   <si>
@@ -779,9 +710,6 @@
     <t xml:space="preserve">Add Completed/Closed Orders Tables </t>
   </si>
   <si>
-    <t xml:space="preserve">Add Query to Populate Completed/Closed Orders Tables  </t>
-  </si>
-  <si>
     <t>Upate Completed/Review Imaging Orders Insert Queries to update Order Status</t>
   </si>
   <si>
@@ -797,15 +725,6 @@
     <t>Add Hostside Encryption</t>
   </si>
   <si>
-    <t>Add Encryption to Create/Modify User Statements</t>
-  </si>
-  <si>
-    <t>Add Encryption to Login Functionallity</t>
-  </si>
-  <si>
-    <t>Add Encryption to User Info Page</t>
-  </si>
-  <si>
     <t>Create and Connect RIS to Remote Database</t>
   </si>
   <si>
@@ -818,7 +737,235 @@
     <t>Add .trim() to the RIS System</t>
   </si>
   <si>
-    <t>30 minutes</t>
+    <t>Chase, Cole</t>
+  </si>
+  <si>
+    <t>Usable Alerts Button</t>
+  </si>
+  <si>
+    <t>Add Encrypt/Decrypt Class</t>
+  </si>
+  <si>
+    <t>Add Class Usage to RIS</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Debug the RIS</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>017a</t>
+  </si>
+  <si>
+    <t>017b</t>
+  </si>
+  <si>
+    <t>017c</t>
+  </si>
+  <si>
+    <t>017d</t>
+  </si>
+  <si>
+    <t>017e</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>018a</t>
+  </si>
+  <si>
+    <t>018b</t>
+  </si>
+  <si>
+    <t>018c</t>
+  </si>
+  <si>
+    <t>018d</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>019a</t>
+  </si>
+  <si>
+    <t>019b</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>020a</t>
+  </si>
+  <si>
+    <t>020b</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>021a</t>
+  </si>
+  <si>
+    <t>021b</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Fix Visual Appearance of the Project</t>
+  </si>
+  <si>
+    <t>022a</t>
+  </si>
+  <si>
+    <t>022b</t>
+  </si>
+  <si>
+    <t>022c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immplement Consistent Font Size and Style </t>
+  </si>
+  <si>
+    <t>Immplement Consistent Layout Pane Positioning and Size</t>
+  </si>
+  <si>
+    <t>Add Button and Feature Consistency to Different User Portals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Query and Constructor to Populate Completed/Closed Orders Tables  </t>
+  </si>
+  <si>
+    <t>Cade. Chase. Cole</t>
+  </si>
+  <si>
+    <t>Encrypt/Decrypt Class</t>
+  </si>
+  <si>
+    <t>Google Cloud, Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Remote Database</t>
+  </si>
+  <si>
+    <t>Running Remote Database</t>
+  </si>
+  <si>
+    <t>Working Remote Connection to Database</t>
+  </si>
+  <si>
+    <t>RIS System</t>
+  </si>
+  <si>
+    <t>Increased Visual Consistency in RIS</t>
+  </si>
+  <si>
+    <t>Table Shows Patients Alerts Button</t>
+  </si>
+  <si>
+    <t>Required Areas have Different Patients Alerts Button</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Clean-up Code Logic and Fix Errors</t>
+  </si>
+  <si>
+    <t>023a</t>
+  </si>
+  <si>
+    <t>RIS Stystem Without Insert Errors</t>
+  </si>
+  <si>
+    <t>Working Queries</t>
+  </si>
+  <si>
+    <t>Visual Graphic for Adding Patient Alert</t>
+  </si>
+  <si>
+    <t>Table Appears on Home Screen</t>
+  </si>
+  <si>
+    <t>Functional Completed/Closed Orders Tables</t>
+  </si>
+  <si>
+    <t>Queries for Tables now Move Orders Along as Processed By User</t>
+  </si>
+  <si>
+    <t>Less User Input into System and less complexity</t>
+  </si>
+  <si>
+    <t>Working Show Image Button with Parameters</t>
+  </si>
+  <si>
+    <t>Show Image Button Appears on Sections where Required</t>
+  </si>
+  <si>
+    <t>Encrypt/Decrypt Class created</t>
+  </si>
+  <si>
+    <t>Encrypt/Decrypt Class Functional inside the RIS</t>
+  </si>
+  <si>
+    <t>Austin, Chase</t>
+  </si>
+  <si>
+    <t>Chase, Cole, Austin, Cade</t>
+  </si>
+  <si>
+    <t>Beginning of Project</t>
+  </si>
+  <si>
+    <t>Visual Start of Project</t>
+  </si>
+  <si>
+    <t>Launch Program Created</t>
+  </si>
+  <si>
+    <t>Event Handlers Created</t>
+  </si>
+  <si>
+    <t>Login Screen Working Functionally and Visually</t>
+  </si>
+  <si>
+    <t>Database Maitnance Started</t>
+  </si>
+  <si>
+    <t>Implement Feature 2</t>
+  </si>
+  <si>
+    <t>Implement Feature 3</t>
+  </si>
+  <si>
+    <t>Create and Organize Final Deliverables</t>
+  </si>
+  <si>
+    <t>Chase, Cade</t>
+  </si>
+  <si>
+    <t>Medical Conent Forms</t>
+  </si>
+  <si>
+    <t>Help/Tutorial Screen</t>
+  </si>
+  <si>
+    <t>Completed Project Folder</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1113,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1371,10 +1518,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>569.5</c:v>
+                  <c:v>681.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,10 +1966,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,29 +3571,29 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10" t="e">
+      <c r="E2" s="10">
         <f>SUM(E3:E100)</f>
-        <v>#VALUE!</v>
+        <v>832</v>
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="13">
         <f ca="1">D3-TODAY()</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
-        <v>649.5</v>
+        <v>731.5</v>
       </c>
       <c r="I2" s="14">
         <f>SUM(I3:I100)</f>
-        <v>569.5</v>
+        <v>681.5</v>
       </c>
       <c r="J2" s="14">
         <f>SUM(J3:J100)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -3484,7 +3631,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3">
         <v>44596</v>
@@ -3527,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3">
         <v>44596</v>
@@ -3570,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3">
         <v>44599</v>
@@ -3785,7 +3932,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="22">
         <v>44606</v>
@@ -3828,7 +3975,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="22">
         <v>44606</v>
@@ -3871,7 +4018,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="22">
         <v>44606</v>
@@ -3914,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="22">
         <v>44606</v>
@@ -3957,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="22">
         <v>44606</v>
@@ -4043,7 +4190,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="22">
         <v>44607</v>
@@ -4086,7 +4233,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="22">
         <v>44607</v>
@@ -4129,7 +4276,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="22">
         <v>44607</v>
@@ -4172,7 +4319,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="22">
         <v>44607</v>
@@ -4215,7 +4362,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="22">
         <v>44607</v>
@@ -4258,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="22">
         <v>44607</v>
@@ -4301,7 +4448,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="22">
         <v>44607</v>
@@ -4344,7 +4491,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="22">
         <v>44604</v>
@@ -4387,7 +4534,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="22">
         <v>44604</v>
@@ -4430,7 +4577,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="22">
         <v>44604</v>
@@ -4473,7 +4620,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="22">
         <v>44604</v>
@@ -4516,7 +4663,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="22">
         <v>44604</v>
@@ -4559,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="22">
         <v>44604</v>
@@ -4602,7 +4749,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="22">
         <v>44604</v>
@@ -4645,7 +4792,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="22">
         <v>44604</v>
@@ -4673,7 +4820,7 @@
         <v>101</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>41</v>
@@ -4878,24 +5025,24 @@
         <v>2</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>109</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>144</v>
       </c>
       <c r="N36" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4921,24 +5068,24 @@
         <v>6</v>
       </c>
       <c r="I37" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>110</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>144</v>
       </c>
       <c r="N37" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4964,24 +5111,24 @@
         <v>4</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>111</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>144</v>
       </c>
       <c r="N38" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5007,24 +5154,24 @@
         <v>10</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>112</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>144</v>
       </c>
       <c r="N39" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -5050,24 +5197,24 @@
         <v>6</v>
       </c>
       <c r="I40" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>113</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>144</v>
       </c>
       <c r="N40" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -5437,21 +5584,21 @@
         <v>32</v>
       </c>
       <c r="I49" s="4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>112</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="N49" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5459,13 +5606,17 @@
         <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+        <v>174</v>
+      </c>
+      <c r="C50" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D50" s="22">
+        <v>44635</v>
+      </c>
       <c r="E50" s="9">
         <f t="shared" ref="E50:E57" si="3">D50-C50</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5479,6 +5630,12 @@
         <f>H50-I50</f>
         <v>0</v>
       </c>
+      <c r="K50" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>292</v>
+      </c>
       <c r="M50" s="19" t="s">
         <v>37</v>
       </c>
@@ -5489,26 +5646,42 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+        <v>175</v>
+      </c>
+      <c r="C51" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D51" s="22">
+        <v>44635</v>
+      </c>
       <c r="E51" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
+      <c r="H51" s="4">
+        <v>3</v>
+      </c>
       <c r="I51" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" s="9">
         <f>H51-I51</f>
         <v>0</v>
       </c>
+      <c r="K51" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N51" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Complete</v>
@@ -5516,26 +5689,42 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+        <v>176</v>
+      </c>
+      <c r="C52" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D52" s="22">
+        <v>44632</v>
+      </c>
       <c r="E52" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
       <c r="I52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="9">
         <f>H52-I52</f>
         <v>0</v>
       </c>
+      <c r="K52" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N52" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Complete</v>
@@ -5543,55 +5732,84 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="C53" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D53" s="22">
+        <v>44631</v>
+      </c>
       <c r="E53" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
       <c r="I53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="9">
         <f>H53-I53</f>
         <v>0</v>
       </c>
+      <c r="K53" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="N53" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="C54" s="22">
+        <v>44631</v>
+      </c>
+      <c r="D54" s="22">
+        <v>44637</v>
+      </c>
       <c r="E54" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
+      <c r="H54" s="4">
+        <v>5</v>
+      </c>
       <c r="I54" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J54" s="9">
         <f>H54-I54</f>
         <v>0</v>
       </c>
+      <c r="K54" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>296</v>
+      </c>
       <c r="M54" s="19" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="N54" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5600,14 +5818,20 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="C55" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D55" s="22">
+        <v>44626</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -5621,8 +5845,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K55" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="M55" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N55" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5631,7 +5861,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -5641,6 +5871,9 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
       <c r="I56" s="4">
         <v>0</v>
       </c>
@@ -5655,10 +5888,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" s="22">
         <v>44629</v>
@@ -5683,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L57" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="M57" s="19" t="s">
         <v>39</v>
@@ -5698,10 +5931,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="22">
         <v>44629</v>
@@ -5726,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>41</v>
@@ -5741,10 +5974,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" s="22">
         <v>44629</v>
@@ -5769,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L59" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>40</v>
@@ -5784,10 +6017,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C60" s="22">
         <v>44629</v>
@@ -5812,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>37</v>
@@ -5827,10 +6060,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="C61" s="22">
         <v>44631</v>
@@ -5855,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>41</v>
@@ -5870,10 +6103,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C62" s="22">
         <v>44641</v>
@@ -5898,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>144</v>
@@ -5912,6 +6145,12 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="9">
@@ -5920,21 +6159,27 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
       <c r="J63" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N63" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="22">
         <v>44642</v>
@@ -5959,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>37</v>
@@ -5974,10 +6219,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" s="22">
         <v>44642</v>
@@ -6002,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>41</v>
@@ -6017,10 +6262,10 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="22">
         <v>44642</v>
@@ -6045,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>40</v>
@@ -6061,10 +6306,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67" s="22">
         <v>44642</v>
@@ -6089,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>39</v>
@@ -6104,160 +6349,255 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="22">
-        <v>44644</v>
-      </c>
-      <c r="D68" s="22">
-        <v>44657</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="9">
         <f t="shared" ref="E68:E101" si="5">D68-C68</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I68" s="4">
         <v>0</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" ref="J68:J101" si="6">H68-I68</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N68" s="11" t="str">
         <f t="shared" ref="N68" si="7">IF(A68="","",IF(I68="","Not Started",IF(H68=I68,"Complete",IF(H68&gt;I68,"In Progress"))))</f>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+        <v>215</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D69" s="22">
+        <v>44648</v>
+      </c>
       <c r="E69" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
+      <c r="H69" s="4">
+        <v>3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3</v>
+      </c>
       <c r="J69" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K69" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N69" s="11" t="str">
         <f t="shared" ref="N69:N101" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+        <v>216</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44648</v>
+      </c>
+      <c r="D70" s="22">
+        <v>44653</v>
+      </c>
       <c r="E70" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
+      <c r="H70" s="4">
+        <v>5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>5</v>
+      </c>
       <c r="J70" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K70" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N70" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+        <v>240</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44653</v>
+      </c>
+      <c r="D71" s="22">
+        <v>44654</v>
+      </c>
       <c r="E71" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
+      <c r="H71" s="4">
+        <v>3</v>
+      </c>
+      <c r="I71" s="4">
+        <v>3</v>
+      </c>
       <c r="J71" s="9">
         <f>H71-I71</f>
         <v>0</v>
       </c>
+      <c r="K71" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="N71" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44653</v>
+      </c>
+      <c r="D72" s="22">
+        <v>44654</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
+        <v>2</v>
+      </c>
       <c r="J72" s="9">
         <f>H72-I72</f>
         <v>0</v>
       </c>
+      <c r="K72" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N72" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" s="2" t="s">
         <v>242</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="22">
+        <v>44654</v>
+      </c>
+      <c r="D73" s="22">
+        <v>44657</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
+      <c r="H73" s="4">
+        <v>4</v>
+      </c>
+      <c r="I73" s="4">
+        <v>4</v>
+      </c>
       <c r="J73" s="9">
         <f>H73-I73</f>
         <v>0</v>
       </c>
+      <c r="K73" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N73" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" si="5"/>
@@ -6265,401 +6605,784 @@
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
       <c r="J74" s="9">
         <f>H74-I74</f>
         <v>0</v>
       </c>
       <c r="N74" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
+      </c>
+      <c r="C75" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D75" s="22">
+        <v>44647</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2</v>
+      </c>
       <c r="J75" s="9">
         <f>H75-I75</f>
         <v>0</v>
       </c>
+      <c r="K75" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N75" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B76" s="2" t="s">
         <v>245</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44647</v>
+      </c>
+      <c r="D76" s="22">
+        <v>44648</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>2</v>
+      </c>
       <c r="J76" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K76" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="M76" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="N76" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" s="2" t="s">
         <v>246</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="22">
+        <v>44648</v>
+      </c>
+      <c r="D77" s="22">
+        <v>44649</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
       <c r="J77" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K77" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L77" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="N77" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" s="2" t="s">
         <v>247</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="22">
+        <v>44649</v>
+      </c>
+      <c r="D78" s="24">
+        <v>44651</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
       <c r="J78" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K78" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N78" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
       <c r="J79" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N79" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>249</v>
+        <v>225</v>
+      </c>
+      <c r="C80" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D80" s="22">
+        <v>44647</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
+      <c r="H80" s="4">
+        <v>3</v>
+      </c>
+      <c r="I80" s="4">
+        <v>3</v>
+      </c>
       <c r="J80" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K80" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="M80" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N80" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>230</v>
+        <v>250</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="22">
+        <v>44647</v>
+      </c>
+      <c r="D81" s="22">
+        <v>44648</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
+      <c r="H81" s="4">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4">
+        <v>2</v>
+      </c>
       <c r="J81" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K81" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L81" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="M81" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="N81" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>250</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
       <c r="J82" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N82" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D83" s="22">
+        <v>44651</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
       <c r="J83" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K83" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="N83" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="C84" s="22">
+        <v>44651</v>
+      </c>
+      <c r="D84" s="22">
+        <v>44654</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
+      <c r="H84" s="4">
+        <v>4</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4</v>
+      </c>
       <c r="J84" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K84" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L84" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="M84" s="19" t="s">
+        <v>290</v>
+      </c>
       <c r="N84" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
       <c r="J85" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M85" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="N85" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D86" s="22">
+        <v>44658</v>
       </c>
       <c r="E86" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
+      <c r="H86" s="4">
+        <v>2</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1</v>
+      </c>
       <c r="J86" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="M86" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N86" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>In Progress</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
+      </c>
+      <c r="C87" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D87" s="22">
+        <v>44658</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
+      <c r="H87" s="4">
+        <v>14</v>
+      </c>
+      <c r="I87" s="4">
+        <v>7</v>
+      </c>
       <c r="J87" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="L87" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="M87" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="N87" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>In Progress</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="C88" s="22">
+        <v>44656</v>
+      </c>
+      <c r="D88" s="22">
+        <v>44658</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
       <c r="J88" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N88" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="22">
+        <v>44656</v>
+      </c>
+      <c r="D89" s="22">
+        <v>44658</v>
+      </c>
       <c r="E89" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
+      <c r="H89" s="4">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1</v>
+      </c>
       <c r="J89" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K89" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L89" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M89" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N89" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="22">
+        <v>44656</v>
+      </c>
+      <c r="D90" s="22">
+        <v>44658</v>
+      </c>
       <c r="E90" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
+      <c r="H90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4">
+        <v>2</v>
+      </c>
       <c r="J90" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K90" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M90" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N90" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="22">
+        <v>44655</v>
+      </c>
+      <c r="D91" s="22">
+        <v>44658</v>
+      </c>
       <c r="E91" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
+      <c r="H91" s="4">
+        <v>3</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3</v>
+      </c>
       <c r="J91" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K91" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M91" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="N91" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="22">
+        <v>44654</v>
+      </c>
+      <c r="D92" s="22">
+        <v>44659</v>
+      </c>
       <c r="E92" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="9">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
       <c r="J92" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N92" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="22">
+        <v>44654</v>
+      </c>
+      <c r="D93" s="22">
+        <v>44657</v>
+      </c>
       <c r="E93" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
       <c r="J93" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K93" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L93" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="M93" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="N93" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Complete</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,64 +7433,127 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="22">
+        <v>44659</v>
+      </c>
+      <c r="D97" s="22">
+        <v>44667</v>
+      </c>
       <c r="E97" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
+      <c r="H97" s="4">
+        <v>10</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
       <c r="J97" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="L97" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="M97" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="N97" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>In Progress</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="22">
+        <v>44659</v>
+      </c>
+      <c r="D98" s="22">
+        <v>44667</v>
+      </c>
       <c r="E98" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
+      <c r="H98" s="4">
+        <v>16</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
       <c r="J98" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="M98" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="N98" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>In Progress</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="B99" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E99" s="9" t="e">
+        <v>300</v>
+      </c>
+      <c r="C99" s="22">
+        <v>44659</v>
+      </c>
+      <c r="D99" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E99" s="9">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
+      <c r="H99" s="4">
+        <v>10</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
       <c r="J99" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="L99" s="19" t="s">
+        <v>304</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="N99" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>In Progress</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E100" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6783,19 +7569,12 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="22">
-        <v>44661</v>
-      </c>
-      <c r="D101" s="22">
-        <v>44667</v>
-      </c>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="9">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>

--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56076F-F34C-49D7-BB0B-8CB9EEFFD4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A02D9A-E004-4400-A43B-F2B560C2B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="315">
   <si>
     <t>Task#</t>
   </si>
@@ -966,6 +966,27 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean Up Doc </t>
+  </si>
+  <si>
+    <t>Clean Up Tech</t>
+  </si>
+  <si>
+    <t>Clean Up Admin</t>
+  </si>
+  <si>
+    <t>Clean Up User</t>
+  </si>
+  <si>
+    <t>Clean Up Desk</t>
+  </si>
+  <si>
+    <t>Clean up Radio</t>
+  </si>
+  <si>
+    <t>3 Hour</t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1987,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,11 +3598,11 @@
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="13">
         <f ca="1">D3-TODAY()</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
@@ -7585,6 +7606,42 @@
       <c r="N101" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L111" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="M111" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A02D9A-E004-4400-A43B-F2B560C2B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBBB55-79C5-490F-9D83-744CA883DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="315">
   <si>
     <t>Task#</t>
   </si>
@@ -3521,7 +3521,7 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,6 +7611,12 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>308</v>
+      </c>
+      <c r="L110" s="19">
+        <v>2</v>
+      </c>
+      <c r="M110" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">

--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBBB55-79C5-490F-9D83-744CA883DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74F252-E258-46DE-81C4-302C41AD5673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="317">
   <si>
     <t>Task#</t>
   </si>
@@ -987,6 +987,12 @@
   </si>
   <si>
     <t>3 Hour</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
   </si>
 </sst>
 </file>
@@ -3521,7 +3527,7 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7612,8 +7618,8 @@
       <c r="B110" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L110" s="19">
-        <v>2</v>
+      <c r="L110" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="M110" s="19" t="s">
         <v>37</v>
@@ -7635,19 +7641,31 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L113" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="M113" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>313</v>
+      </c>
+      <c r="L115" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="M115" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Scheduling/Schedule/Schedule-Team4 (2).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74F252-E258-46DE-81C4-302C41AD5673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A63CA-3332-428B-8B6A-9997362527B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="320">
   <si>
     <t>Task#</t>
   </si>
@@ -993,6 +993,15 @@
   </si>
   <si>
     <t>1 Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>Close Database Opens in the RIS</t>
   </si>
 </sst>
 </file>
@@ -1993,10 +2002,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,11 +3613,11 @@
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="13">
         <f ca="1">D3-TODAY()</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
@@ -7640,6 +7649,12 @@
       <c r="B112" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="L112" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="M112" s="19" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
@@ -7656,6 +7671,12 @@
       <c r="B114" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="L114" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="M114" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
@@ -7666,6 +7687,11 @@
       </c>
       <c r="M115" s="19" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
